--- a/results/Boxes.Texture.Rotate PET.xlsx
+++ b/results/Boxes.Texture.Rotate PET.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -344,7 +344,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$31:$I$37</c:f>
+              <c:f>Sheet1!$J$31:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -352,19 +352,19 @@
                   <c:v>0.52196146018591527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78152116548228334</c:v>
+                  <c:v>0.40301250659695376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93831871947272405</c:v>
+                  <c:v>0.75891837815571117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1799910698728002</c:v>
+                  <c:v>0.9471053319393623</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.74276591762777677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24495989134586818</c:v>
+                  <c:v>0.22795323840244472</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.17417369938121358</c:v>
@@ -382,11 +382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="432442584"/>
-        <c:axId val="432442976"/>
+        <c:axId val="188121576"/>
+        <c:axId val="188126672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432442584"/>
+        <c:axId val="188121576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432442976"/>
+        <c:crossAx val="188126672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -432,7 +432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432442976"/>
+        <c:axId val="188126672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,24 +477,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432442584"/>
+        <c:crossAx val="188121576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="tr"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.57047878748762948"/>
-          <c:y val="3.9748953974895397E-2"/>
-          <c:w val="0.18642356180887226"/>
-          <c:h val="0.15412809277501399"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1"/>
@@ -1385,11 +1376,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="432443760"/>
-        <c:axId val="507341928"/>
+        <c:axId val="188123536"/>
+        <c:axId val="188127848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432443760"/>
+        <c:axId val="188123536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507341928"/>
+        <c:crossAx val="188127848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1406,7 +1397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="507341928"/>
+        <c:axId val="188127848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1419,7 +1410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432443760"/>
+        <c:crossAx val="188123536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,7 +1654,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$31:$I$37</c:f>
+              <c:f>Sheet1!$J$31:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1671,19 +1662,19 @@
                   <c:v>0.52196146018591527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78152116548228334</c:v>
+                  <c:v>0.40301250659695376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93831871947272405</c:v>
+                  <c:v>0.75891837815571117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1799910698728002</c:v>
+                  <c:v>0.9471053319393623</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.74276591762777677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24495989134586818</c:v>
+                  <c:v>0.22795323840244472</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.17417369938121358</c:v>
@@ -1701,11 +1692,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507340360"/>
-        <c:axId val="507341536"/>
+        <c:axId val="188125496"/>
+        <c:axId val="188127064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="507340360"/>
+        <c:axId val="188125496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507341536"/>
+        <c:crossAx val="188127064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1751,7 +1742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="507341536"/>
+        <c:axId val="188127064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1797,7 +1788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507340360"/>
+        <c:crossAx val="188125496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1920,7 +1911,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="5867400" y="5343525"/>
+    <xdr:pos x="6629400" y="5114925"/>
     <xdr:ext cx="6191249" cy="3746500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2231,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2666,7 +2657,7 @@
         <v>1.27352</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2696,7 +2687,7 @@
         <v>5.8682999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2726,7 +2717,7 @@
         <v>0.43700699999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2756,7 +2747,7 @@
         <v>0.31889699999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2786,7 +2777,7 @@
         <v>0.43340600000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2816,7 +2807,7 @@
         <v>0.39291500000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2846,7 +2837,7 @@
         <v>0.92344000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2876,7 +2867,7 @@
         <v>0.96623599999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2906,7 +2897,7 @@
         <v>37.808799999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2936,7 +2927,7 @@
         <v>0.75351199999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2966,7 +2957,7 @@
         <v>280.779</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2996,7 +2987,7 @@
         <v>1.4232499999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3026,7 +3017,7 @@
         <v>0.94449899999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3054,8 +3045,11 @@
       <c r="I30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3064,35 +3058,39 @@
         <v>0.54540999999999995</v>
       </c>
       <c r="C31">
-        <f>C14/$B31</f>
+        <f t="shared" ref="C31:I31" si="1">C14/$B31</f>
         <v>0.44869547679727179</v>
       </c>
       <c r="D31">
-        <f>D14/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.9247391870336078</v>
       </c>
       <c r="E31">
-        <f>E14/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.45727251058836477</v>
       </c>
       <c r="F31">
-        <f>F14/$B31</f>
+        <f t="shared" si="1"/>
         <v>1.0256467611521607</v>
       </c>
       <c r="G31">
-        <f>G14/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.55669496342201286</v>
       </c>
       <c r="H31">
-        <f>H14/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.53294585724500831</v>
       </c>
       <c r="I31">
-        <f>I14/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.52196146018591527</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f>MIN(G31:I31)</f>
+        <v>0.52196146018591527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
@@ -3102,37 +3100,41 @@
         <v>1.62954</v>
       </c>
       <c r="C32">
-        <f>C16/$B32</f>
+        <f t="shared" ref="C32:I32" si="2">C16/$B32</f>
         <v>0.55593234900646804</v>
       </c>
       <c r="D32">
-        <f>D16/$B32</f>
+        <f t="shared" si="2"/>
         <v>1.0295175325551997</v>
       </c>
       <c r="E32">
-        <f>E16/$B32</f>
+        <f t="shared" si="2"/>
         <v>0.8709144912061072</v>
       </c>
       <c r="F32">
-        <f>F16/$B32</f>
+        <f t="shared" si="2"/>
         <v>1.0027062852093229</v>
       </c>
       <c r="G32">
-        <f>G16/$B32</f>
+        <f t="shared" si="2"/>
         <v>0.40301250659695376</v>
       </c>
       <c r="H32">
-        <f>H16/$B32</f>
+        <f t="shared" si="2"/>
         <v>0.74794113676252205</v>
       </c>
       <c r="I32">
-        <f>I16/$B32</f>
+        <f t="shared" si="2"/>
         <v>0.78152116548228334</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" ref="J32:J37" si="3">MIN(G32:I32)</f>
+        <v>0.40301250659695376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A37" si="1">A32+1</f>
+        <f t="shared" ref="A33:A37" si="4">A32+1</f>
         <v>3</v>
       </c>
       <c r="B33">
@@ -3140,37 +3142,41 @@
         <v>0.33986</v>
       </c>
       <c r="C33">
-        <f>C19/$B33</f>
+        <f t="shared" ref="C33:I36" si="5">C19/$B33</f>
         <v>1.3643000058847761</v>
       </c>
       <c r="D33">
-        <f>D19/$B33</f>
+        <f t="shared" si="5"/>
         <v>1.0614311775436944</v>
       </c>
       <c r="E33">
-        <f>E19/$B33</f>
+        <f t="shared" si="5"/>
         <v>1.0007650208909551</v>
       </c>
       <c r="F33">
-        <f>F19/$B33</f>
+        <f t="shared" si="5"/>
         <v>1.3529276761019242</v>
       </c>
       <c r="G33">
-        <f>G19/$B33</f>
+        <f t="shared" si="5"/>
         <v>1.2584211145765902</v>
       </c>
       <c r="H33">
-        <f>H19/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.75891837815571117</v>
       </c>
       <c r="I33">
-        <f>I19/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.93831871947272405</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0.75891837815571117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B34">
@@ -3178,37 +3184,41 @@
         <v>0.36729600000000001</v>
       </c>
       <c r="C34">
-        <f>C20/$B34</f>
+        <f t="shared" si="5"/>
         <v>0.92195395539292557</v>
       </c>
       <c r="D34">
-        <f>D20/$B34</f>
+        <f t="shared" si="5"/>
         <v>0.99434243770691755</v>
       </c>
       <c r="E34">
-        <f>E20/$B34</f>
+        <f t="shared" si="5"/>
         <v>0.68617409391880113</v>
       </c>
       <c r="F34">
-        <f>F20/$B34</f>
+        <f t="shared" si="5"/>
         <v>0.89925019602718237</v>
       </c>
       <c r="G34">
-        <f>G20/$B34</f>
+        <f t="shared" si="5"/>
         <v>0.9471053319393623</v>
       </c>
       <c r="H34">
-        <f>H20/$B34</f>
+        <f t="shared" si="5"/>
         <v>1.5439727086600452</v>
       </c>
       <c r="I34">
-        <f>I20/$B34</f>
+        <f t="shared" si="5"/>
         <v>1.1799910698728002</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0.9471053319393623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B35">
@@ -3216,37 +3226,41 @@
         <v>0.52898900000000004</v>
       </c>
       <c r="C35">
-        <f>C21/$B35</f>
+        <f t="shared" si="5"/>
         <v>0.95498394106493689</v>
       </c>
       <c r="D35">
-        <f>D21/$B35</f>
+        <f t="shared" si="5"/>
         <v>0.81890738748820857</v>
       </c>
       <c r="E35">
-        <f>E21/$B35</f>
+        <f t="shared" si="5"/>
         <v>0.60071948566038236</v>
       </c>
       <c r="F35">
-        <f>F21/$B35</f>
+        <f t="shared" si="5"/>
         <v>1.0000132327893396</v>
       </c>
       <c r="G35">
-        <f>G21/$B35</f>
+        <f t="shared" si="5"/>
         <v>1.0449083062218685</v>
       </c>
       <c r="H35">
-        <f>H21/$B35</f>
+        <f t="shared" si="5"/>
         <v>1.209766176612368</v>
       </c>
       <c r="I35">
-        <f>I21/$B35</f>
+        <f t="shared" si="5"/>
         <v>0.74276591762777677</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0.74276591762777677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B36">
@@ -3254,37 +3268,41 @@
         <v>3.7697600000000002</v>
       </c>
       <c r="C36">
-        <f>C22/$B36</f>
+        <f t="shared" si="5"/>
         <v>0.27767019651118374</v>
       </c>
       <c r="D36">
-        <f>D22/$B36</f>
+        <f t="shared" si="5"/>
         <v>0.49721998217393149</v>
       </c>
       <c r="E36">
-        <f>E22/$B36</f>
+        <f t="shared" si="5"/>
         <v>0.25086451126862186</v>
       </c>
       <c r="F36">
-        <f>F22/$B36</f>
+        <f t="shared" si="5"/>
         <v>0.92873551631934126</v>
       </c>
       <c r="G36">
-        <f>G22/$B36</f>
+        <f t="shared" si="5"/>
         <v>0.22795323840244472</v>
       </c>
       <c r="H36">
-        <f>H22/$B36</f>
+        <f t="shared" si="5"/>
         <v>0.75132899707143153</v>
       </c>
       <c r="I36">
-        <f>I22/$B36</f>
+        <f t="shared" si="5"/>
         <v>0.24495989134586818</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0.22795323840244472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B37">
@@ -3292,31 +3310,35 @@
         <v>4.3262099999999997</v>
       </c>
       <c r="C37">
-        <f>C25/$B37</f>
+        <f t="shared" ref="C37:I37" si="6">C25/$B37</f>
         <v>0.17034448165946639</v>
       </c>
       <c r="D37">
-        <f>D25/$B37</f>
+        <f t="shared" si="6"/>
         <v>1.1272499485693019</v>
       </c>
       <c r="E37">
-        <f>E25/$B37</f>
+        <f t="shared" si="6"/>
         <v>0.24834670531481368</v>
       </c>
       <c r="F37">
-        <f>F25/$B37</f>
+        <f t="shared" si="6"/>
         <v>1.0310387151802618</v>
       </c>
       <c r="G37">
-        <f>G25/$B37</f>
+        <f t="shared" si="6"/>
         <v>0.18951784587433343</v>
       </c>
       <c r="H37">
-        <f>H25/$B37</f>
+        <f t="shared" si="6"/>
         <v>0.17485628298210215</v>
       </c>
       <c r="I37">
-        <f>I25/$B37</f>
+        <f t="shared" si="6"/>
+        <v>0.17417369938121358</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
         <v>0.17417369938121358</v>
       </c>
     </row>

--- a/results/Boxes.Texture.Rotate PET.xlsx
+++ b/results/Boxes.Texture.Rotate PET.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\phdThesis\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -67,6 +62,18 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>avg * 1000</t>
+  </si>
+  <si>
+    <t>mins</t>
+  </si>
+  <si>
+    <t>%=&gt;</t>
   </si>
 </sst>
 </file>
@@ -125,7 +132,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-AU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -148,7 +155,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$30</c:f>
+              <c:f>Sheet1!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -160,7 +167,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$C$37</c:f>
+              <c:f>Sheet1!$C$32:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -194,7 +201,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$30</c:f>
+              <c:f>Sheet1!$D$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,7 +213,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$31:$D$37</c:f>
+              <c:f>Sheet1!$D$32:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -240,7 +247,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$30</c:f>
+              <c:f>Sheet1!$E$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -252,7 +259,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$E$37</c:f>
+              <c:f>Sheet1!$E$32:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -286,7 +293,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$30</c:f>
+              <c:f>Sheet1!$F$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -298,7 +305,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$31:$F$37</c:f>
+              <c:f>Sheet1!$F$32:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -332,7 +339,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$30</c:f>
+              <c:f>Sheet1!$I$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -344,7 +351,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$31:$J$37</c:f>
+              <c:f>Sheet1!$J$32:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -382,11 +389,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188121576"/>
-        <c:axId val="188126672"/>
+        <c:axId val="89035904"/>
+        <c:axId val="89037824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188121576"/>
+        <c:axId val="89035904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188126672"/>
+        <c:crossAx val="89037824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -432,7 +439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188126672"/>
+        <c:axId val="89037824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188121576"/>
+        <c:crossAx val="89035904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -526,7 +533,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-AU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1375,12 +1382,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188123536"/>
-        <c:axId val="188127848"/>
+        <c:axId val="88974464"/>
+        <c:axId val="88976000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188123536"/>
+        <c:axId val="88974464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188127848"/>
+        <c:crossAx val="88976000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1397,7 +1405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188127848"/>
+        <c:axId val="88976000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1410,7 +1418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188123536"/>
+        <c:crossAx val="88974464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1435,7 +1443,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-AU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1458,7 +1466,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$30</c:f>
+              <c:f>Sheet1!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1470,7 +1478,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$C$37</c:f>
+              <c:f>Sheet1!$C$32:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1504,7 +1512,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$30</c:f>
+              <c:f>Sheet1!$D$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1516,7 +1524,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$31:$D$37</c:f>
+              <c:f>Sheet1!$D$32:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1550,7 +1558,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$30</c:f>
+              <c:f>Sheet1!$E$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1562,7 +1570,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$E$37</c:f>
+              <c:f>Sheet1!$E$32:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1596,7 +1604,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$30</c:f>
+              <c:f>Sheet1!$F$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1608,7 +1616,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$31:$F$37</c:f>
+              <c:f>Sheet1!$F$32:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1642,7 +1650,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$30</c:f>
+              <c:f>Sheet1!$I$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1654,7 +1662,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$31:$J$37</c:f>
+              <c:f>Sheet1!$J$32:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1692,11 +1700,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188125496"/>
-        <c:axId val="188127064"/>
+        <c:axId val="94725632"/>
+        <c:axId val="94727552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188125496"/>
+        <c:axId val="94725632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,7 +1742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188127064"/>
+        <c:crossAx val="94727552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1742,7 +1750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188127064"/>
+        <c:axId val="94727552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1788,7 +1796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188125496"/>
+        <c:crossAx val="94725632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1843,7 +1851,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1855,7 +1863,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="9286875" cy="6046932"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1882,16 +1890,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>195261</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1911,7 +1919,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6629400" y="5114925"/>
+    <xdr:pos x="6677025" y="6067425"/>
     <xdr:ext cx="6191249" cy="3746500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1978,7 +1986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2013,7 +2021,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2222,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,13 +2241,13 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2267,8 +2275,29 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2296,8 +2325,36 @@
       <c r="I4">
         <v>0.19373599999999999</v>
       </c>
+      <c r="J4">
+        <f>MIN(G4:I4)</f>
+        <v>0.168267</v>
+      </c>
+      <c r="L4">
+        <f>MIN(C4:J4)</f>
+        <v>0.155699</v>
+      </c>
+      <c r="M4">
+        <f>IF(C4=$L4, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:Q19" si="0">IF(D4=$L4, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>IF(J4=$L4, 1, 0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -2326,10 +2383,38 @@
       <c r="I5">
         <v>0.304201</v>
       </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J28" si="1">MIN(G5:I5)</f>
+        <v>0.15829199999999999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L30" si="2">MIN(C5:J5)</f>
+        <v>0.15829199999999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:P30" si="3">IF(C5=$L5, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q30" si="4">IF(J5=$L5, 1, 0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <f t="shared" ref="A6:A28" si="5">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6">
@@ -2356,10 +2441,38 @@
       <c r="I6">
         <v>0.69333299999999998</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.22031600000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.178843</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B7">
@@ -2386,10 +2499,38 @@
       <c r="I7">
         <v>1.67486</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.1996</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.193355</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B8">
@@ -2416,10 +2557,38 @@
       <c r="I8">
         <v>0.47630899999999998</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.24559400000000001</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.24559400000000001</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B9">
@@ -2446,10 +2615,38 @@
       <c r="I9">
         <v>0.42896800000000002</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.42896800000000002</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.382355</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B10">
@@ -2476,10 +2673,38 @@
       <c r="I10">
         <v>4.2039</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.89993999999999996</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.85655099999999995</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B11">
@@ -2506,10 +2731,38 @@
       <c r="I11">
         <v>0.59222900000000001</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.53081900000000004</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.45674500000000001</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B12">
@@ -2536,10 +2789,38 @@
       <c r="I12">
         <v>0.28904800000000003</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.238731</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.232322</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B13">
@@ -2566,10 +2847,38 @@
       <c r="I13">
         <v>0.59525499999999998</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.36831399999999997</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.32247199999999998</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B14">
@@ -2596,10 +2905,38 @@
       <c r="I14">
         <v>0.28468300000000002</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.28468300000000002</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.244723</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B15">
@@ -2626,10 +2963,38 @@
       <c r="I15">
         <v>0.39260400000000001</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.34670499999999999</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.24099300000000001</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B16">
@@ -2656,10 +3021,38 @@
       <c r="I16">
         <v>1.27352</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.656725</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.656725</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B17">
@@ -2686,10 +3079,38 @@
       <c r="I17">
         <v>5.8682999999999996</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.35757</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.34983399999999998</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B18">
@@ -2716,10 +3137,38 @@
       <c r="I18">
         <v>0.43700699999999998</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0.29241400000000001</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.245474</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B19">
@@ -2746,10 +3195,38 @@
       <c r="I19">
         <v>0.31889699999999999</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.25792599999999999</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.25792599999999999</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B20">
@@ -2776,10 +3253,38 @@
       <c r="I20">
         <v>0.43340600000000001</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.34786800000000001</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.252029</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B21">
@@ -2806,10 +3311,38 @@
       <c r="I21">
         <v>0.39291500000000001</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0.39291500000000001</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0.317774</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B22">
@@ -2836,10 +3369,38 @@
       <c r="I22">
         <v>0.92344000000000004</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.85932900000000001</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.85932900000000001</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B23">
@@ -2866,10 +3427,38 @@
       <c r="I23">
         <v>0.96623599999999998</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.68598599999999998</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0.36146600000000001</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B24">
@@ -2896,10 +3485,38 @@
       <c r="I24">
         <v>37.808799999999998</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.99122699999999997</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0.59493600000000002</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B25">
@@ -2926,10 +3543,38 @@
       <c r="I25">
         <v>0.75351199999999996</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.75351199999999996</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0.73694599999999999</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B26">
@@ -2956,10 +3601,38 @@
       <c r="I26">
         <v>280.779</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.67229099999999997</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0.56409500000000001</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B27">
@@ -2986,10 +3659,38 @@
       <c r="I27">
         <v>1.4232499999999999</v>
       </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>1.40072</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>1.40072</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B28">
@@ -3016,329 +3717,514 @@
       <c r="I28">
         <v>0.94449899999999998</v>
       </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.94449899999999998</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0.81570299999999996</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f>AVERAGE(B4:B28)</f>
+        <v>1.02002792</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:J29" si="6">AVERAGE(C4:C28)</f>
+        <v>0.57447927999999993</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>19.504323799999998</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>0.55028239999999995</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>0.98164571999999994</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>0.53070324000000002</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>13.591860199999999</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>13.69807632</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>0.50812844000000001</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0.50812844000000001</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f>B29*1000</f>
+        <v>1020.02792</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:J30" si="7">C29*1000</f>
+        <v>574.4792799999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>19504.323799999998</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="7"/>
+        <v>550.28239999999994</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>981.64571999999998</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>530.70324000000005</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>13591.860199999999</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>13698.07632</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>508.12844000000001</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>508.12844000000001</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>13</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>4</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>6</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>10</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J31" t="s">
         <v>10</v>
       </c>
+      <c r="L31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31">
+        <f>AVERAGE(M4:M30)*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q31" si="8">AVERAGE(N4:N30)*100</f>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="8"/>
+        <v>29.629629629629626</v>
+      </c>
+      <c r="R31">
+        <f>SUM(M31:Q31)</f>
+        <v>99.999999999999972</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <f>B14</f>
         <v>0.54540999999999995</v>
       </c>
-      <c r="C31">
-        <f t="shared" ref="C31:I31" si="1">C14/$B31</f>
+      <c r="C32">
+        <f t="shared" ref="C32:I32" si="9">C14/$B32</f>
         <v>0.44869547679727179</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
+      <c r="D32">
+        <f t="shared" si="9"/>
         <v>0.9247391870336078</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
+      <c r="E32">
+        <f t="shared" si="9"/>
         <v>0.45727251058836477</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
+      <c r="F32">
+        <f t="shared" si="9"/>
         <v>1.0256467611521607</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
+      <c r="G32">
+        <f t="shared" si="9"/>
         <v>0.55669496342201286</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
+      <c r="H32">
+        <f t="shared" si="9"/>
         <v>0.53294585724500831</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
+      <c r="I32">
+        <f t="shared" si="9"/>
         <v>0.52196146018591527</v>
       </c>
-      <c r="J31">
-        <f>MIN(G31:I31)</f>
+      <c r="J32">
+        <f>MIN(G32:I32)</f>
         <v>0.52196146018591527</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>A31+1</f>
-        <v>2</v>
-      </c>
-      <c r="B32">
-        <f>B16</f>
-        <v>1.62954</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:I32" si="2">C16/$B32</f>
-        <v>0.55593234900646804</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>1.0295175325551997</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="2"/>
-        <v>0.8709144912061072</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="2"/>
-        <v>1.0027062852093229</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>0.40301250659695376</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>0.74794113676252205</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
-        <v>0.78152116548228334</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ref="J32:J37" si="3">MIN(G32:I32)</f>
-        <v>0.40301250659695376</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A37" si="4">A32+1</f>
-        <v>3</v>
+        <f>A32+1</f>
+        <v>2</v>
       </c>
       <c r="B33">
-        <f>B19</f>
-        <v>0.33986</v>
+        <f>B16</f>
+        <v>1.62954</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:I36" si="5">C19/$B33</f>
-        <v>1.3643000058847761</v>
+        <f t="shared" ref="C33:I33" si="10">C16/$B33</f>
+        <v>0.55593234900646804</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
-        <v>1.0614311775436944</v>
+        <f t="shared" si="10"/>
+        <v>1.0295175325551997</v>
       </c>
       <c r="E33">
-        <f t="shared" si="5"/>
-        <v>1.0007650208909551</v>
+        <f t="shared" si="10"/>
+        <v>0.8709144912061072</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
-        <v>1.3529276761019242</v>
+        <f t="shared" si="10"/>
+        <v>1.0027062852093229</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
-        <v>1.2584211145765902</v>
+        <f t="shared" si="10"/>
+        <v>0.40301250659695376</v>
       </c>
       <c r="H33">
-        <f t="shared" si="5"/>
-        <v>0.75891837815571117</v>
+        <f t="shared" si="10"/>
+        <v>0.74794113676252205</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
-        <v>0.93831871947272405</v>
+        <f t="shared" si="10"/>
+        <v>0.78152116548228334</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
-        <v>0.75891837815571117</v>
+        <f t="shared" ref="J33:J38" si="11">MIN(G33:I33)</f>
+        <v>0.40301250659695376</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="A34:A38" si="12">A33+1</f>
+        <v>3</v>
       </c>
       <c r="B34">
-        <f>B20</f>
-        <v>0.36729600000000001</v>
+        <f>B19</f>
+        <v>0.33986</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
-        <v>0.92195395539292557</v>
+        <f>C19/$B34</f>
+        <v>1.3643000058847761</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
-        <v>0.99434243770691755</v>
+        <f>D19/$B34</f>
+        <v>1.0614311775436944</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
-        <v>0.68617409391880113</v>
+        <f>E19/$B34</f>
+        <v>1.0007650208909551</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
-        <v>0.89925019602718237</v>
+        <f>F19/$B34</f>
+        <v>1.3529276761019242</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
-        <v>0.9471053319393623</v>
+        <f>G19/$B34</f>
+        <v>1.2584211145765902</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
-        <v>1.5439727086600452</v>
+        <f>H19/$B34</f>
+        <v>0.75891837815571117</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
-        <v>1.1799910698728002</v>
+        <f>I19/$B34</f>
+        <v>0.93831871947272405</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
-        <v>0.9471053319393623</v>
+        <f t="shared" si="11"/>
+        <v>0.75891837815571117</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="B35">
-        <f>B21</f>
-        <v>0.52898900000000004</v>
+        <f>B20</f>
+        <v>0.36729600000000001</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
-        <v>0.95498394106493689</v>
+        <f>C20/$B35</f>
+        <v>0.92195395539292557</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
-        <v>0.81890738748820857</v>
+        <f>D20/$B35</f>
+        <v>0.99434243770691755</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
-        <v>0.60071948566038236</v>
+        <f>E20/$B35</f>
+        <v>0.68617409391880113</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
-        <v>1.0000132327893396</v>
+        <f>F20/$B35</f>
+        <v>0.89925019602718237</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
-        <v>1.0449083062218685</v>
+        <f>G20/$B35</f>
+        <v>0.9471053319393623</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
-        <v>1.209766176612368</v>
+        <f>H20/$B35</f>
+        <v>1.5439727086600452</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
-        <v>0.74276591762777677</v>
+        <f>I20/$B35</f>
+        <v>1.1799910698728002</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
-        <v>0.74276591762777677</v>
+        <f t="shared" si="11"/>
+        <v>0.9471053319393623</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="B36">
-        <f>B22</f>
-        <v>3.7697600000000002</v>
+        <f>B21</f>
+        <v>0.52898900000000004</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
-        <v>0.27767019651118374</v>
+        <f>C21/$B36</f>
+        <v>0.95498394106493689</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
-        <v>0.49721998217393149</v>
+        <f>D21/$B36</f>
+        <v>0.81890738748820857</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
-        <v>0.25086451126862186</v>
+        <f>E21/$B36</f>
+        <v>0.60071948566038236</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
-        <v>0.92873551631934126</v>
+        <f>F21/$B36</f>
+        <v>1.0000132327893396</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
-        <v>0.22795323840244472</v>
+        <f>G21/$B36</f>
+        <v>1.0449083062218685</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
-        <v>0.75132899707143153</v>
+        <f>H21/$B36</f>
+        <v>1.209766176612368</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
-        <v>0.24495989134586818</v>
+        <f>I21/$B36</f>
+        <v>0.74276591762777677</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
-        <v>0.22795323840244472</v>
+        <f t="shared" si="11"/>
+        <v>0.74276591762777677</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <f>B22</f>
+        <v>3.7697600000000002</v>
+      </c>
+      <c r="C37">
+        <f>C22/$B37</f>
+        <v>0.27767019651118374</v>
+      </c>
+      <c r="D37">
+        <f>D22/$B37</f>
+        <v>0.49721998217393149</v>
+      </c>
+      <c r="E37">
+        <f>E22/$B37</f>
+        <v>0.25086451126862186</v>
+      </c>
+      <c r="F37">
+        <f>F22/$B37</f>
+        <v>0.92873551631934126</v>
+      </c>
+      <c r="G37">
+        <f>G22/$B37</f>
+        <v>0.22795323840244472</v>
+      </c>
+      <c r="H37">
+        <f>H22/$B37</f>
+        <v>0.75132899707143153</v>
+      </c>
+      <c r="I37">
+        <f>I22/$B37</f>
+        <v>0.24495989134586818</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>0.22795323840244472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <f>B25</f>
         <v>4.3262099999999997</v>
       </c>
-      <c r="C37">
-        <f t="shared" ref="C37:I37" si="6">C25/$B37</f>
+      <c r="C38">
+        <f t="shared" ref="C38:I38" si="13">C25/$B38</f>
         <v>0.17034448165946639</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="6"/>
+      <c r="D38">
+        <f t="shared" si="13"/>
         <v>1.1272499485693019</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="6"/>
+      <c r="E38">
+        <f t="shared" si="13"/>
         <v>0.24834670531481368</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="6"/>
+      <c r="F38">
+        <f t="shared" si="13"/>
         <v>1.0310387151802618</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="6"/>
+      <c r="G38">
+        <f t="shared" si="13"/>
         <v>0.18951784587433343</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="6"/>
+      <c r="H38">
+        <f t="shared" si="13"/>
         <v>0.17485628298210215</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="6"/>
+      <c r="I38">
+        <f t="shared" si="13"/>
         <v>0.17417369938121358</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
+      <c r="J38">
+        <f t="shared" si="11"/>
         <v>0.17417369938121358</v>
       </c>
     </row>
